--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>570008</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德周期策略混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>45.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>020005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>国泰金马稳健混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>020005</t>
+          <t>008174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰金马稳健混合</t>
+          <t>国泰蓝筹精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>163804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>中银收益混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000928</t>
+          <t>960012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融国企改革灵活配置混合</t>
+          <t>中银收益混合H</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163804</t>
+          <t>570008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银收益混合A</t>
+          <t>诺德周期策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004189</t>
+          <t>008404</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商消费行业股票</t>
+          <t>华泰紫金泰盈混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>14.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>008405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>华泰紫金泰盈混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>90.98</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001686</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信新动力灵活配置混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001687</t>
+          <t>009875</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信新动力灵活配置混合C</t>
+          <t>天弘甄选食品饮料股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>001686</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>安信新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>960012</t>
+          <t>009876</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银收益混合H</t>
+          <t>天弘甄选食品饮料股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008174</t>
+          <t>009026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合A</t>
+          <t>中银高质量发展机遇混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -950,15 +1120,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>92.67</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>6.21</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008404</t>
+          <t>001687</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合A</t>
+          <t>安信新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008405</t>
+          <t>000928</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰紫金泰盈混合C</t>
+          <t>中融国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009026</t>
+          <t>004189</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中银高质量发展机遇混合</t>
+          <t>华商消费行业股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960012</t>
+          <t>020005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银收益混合H</t>
+          <t>国泰金马稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020005</t>
+          <t>008174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金马稳健混合</t>
+          <t>国泰蓝筹精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>163804</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>中银收益混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163804</t>
+          <t>010446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银收益混合A</t>
+          <t>国泰金福三个月定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>009875</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>天弘甄选食品饮料股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>84.82</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.71</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010446</t>
+          <t>163822</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金福三个月定期开放混合</t>
+          <t>中银主题策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008174</t>
+          <t>009876</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰蓝筹精选混合A</t>
+          <t>天弘甄选食品饮料股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.75</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.95</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>163822</t>
+          <t>960012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银主题策略混合</t>
+          <t>中银收益混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1826,4 +1827,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1995,4 +1996,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2004,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,17 +2016,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2035,14 +2056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2051,14 +2094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2067,14 +2132,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.93</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -2083,13 +2254,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2175,7 +2176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,17 +2187,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2206,14 +2227,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -2222,14 +2317,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -2238,14 +2333,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -2254,14 +2349,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -2270,13 +2365,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,11 +488,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.03</v>
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.93</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.23</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -668,176 +855,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0925</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>770001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -873,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -903,36 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0382</t>
+          <t>0.0925</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -941,36 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006718</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合A</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>88.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -979,34 +996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006719</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合C</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1015,6 +1034,174 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,7 +1331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600305-恒顺醋业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.03</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.93</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.23</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,176 +1308,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002303</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰智慧生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0925</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>770001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1060,7 +1343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1090,36 +1373,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0382</t>
+          <t>0.0925</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1128,36 +1411,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006718</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合A</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>88.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1166,34 +1449,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006719</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国融融盛龙头严选混合C</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1202,6 +1487,174 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1331,7 +1784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1767,7 +2220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
